--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -1,72 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8777506-D096-46E7-8E5B-D7FB48DF2D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801980E-45C8-4D10-9E26-E4A62213B792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>кть людей</t>
+  </si>
+  <si>
+    <t>на всіх людей</t>
+  </si>
+  <si>
+    <t>на 1 людину</t>
+  </si>
+  <si>
+    <t>меню рецепт</t>
+  </si>
+  <si>
+    <t>порція</t>
+  </si>
+  <si>
+    <t>варт</t>
+  </si>
+  <si>
+    <t>кал</t>
+  </si>
+  <si>
+    <t>кал100г</t>
+  </si>
+  <si>
+    <t>%ваги</t>
+  </si>
+  <si>
+    <t>%варт</t>
+  </si>
+  <si>
+    <t>%кал</t>
+  </si>
+  <si>
     <t>рецепт борщ</t>
   </si>
   <si>
     <t>рецепт олів'є</t>
   </si>
   <si>
-    <t>меню рецепт</t>
-  </si>
-  <si>
-    <t>варт</t>
-  </si>
-  <si>
-    <t>кал</t>
-  </si>
-  <si>
-    <t>ціна</t>
-  </si>
-  <si>
-    <t>кал100г</t>
-  </si>
-  <si>
-    <t>%ваги</t>
-  </si>
-  <si>
-    <t>%варт</t>
-  </si>
-  <si>
-    <t>порція</t>
-  </si>
-  <si>
-    <t>%кал</t>
-  </si>
-  <si>
-    <t>кть людей</t>
-  </si>
-  <si>
-    <t>на всіх людей</t>
-  </si>
-  <si>
-    <t>на 1 людину</t>
+    <t>ціна1кг</t>
   </si>
 </sst>
 </file>
@@ -116,7 +111,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -406,79 +401,121 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>32500</v>
+      </c>
+      <c r="C2">
+        <v>425.24000000000012</v>
+      </c>
+      <c r="D2">
+        <v>58998.749999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>650</v>
+      </c>
+      <c r="C3">
+        <v>8.5048000000000012</v>
+      </c>
+      <c r="D3">
+        <v>1179.9749999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>500</v>
+      </c>
+      <c r="C5">
+        <v>3.4315000000000002</v>
+      </c>
+      <c r="D5">
+        <v>780</v>
+      </c>
+      <c r="E5">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="F5">
+        <v>156</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>150</v>
+      </c>
+      <c r="C6">
+        <v>5.0733000000000006</v>
+      </c>
+      <c r="D6">
+        <v>399.97500000000002</v>
+      </c>
+      <c r="E6">
+        <v>33.822000000000003</v>
+      </c>
+      <c r="F6">
+        <v>266.64999999999998</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -486,6 +523,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -1,100 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801980E-45C8-4D10-9E26-E4A62213B792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>кть людей</t>
-  </si>
-  <si>
-    <t>на всіх людей</t>
-  </si>
-  <si>
-    <t>на 1 людину</t>
-  </si>
-  <si>
-    <t>меню рецепт</t>
-  </si>
-  <si>
-    <t>порція</t>
-  </si>
-  <si>
-    <t>варт</t>
-  </si>
-  <si>
-    <t>кал</t>
-  </si>
-  <si>
-    <t>кал100г</t>
-  </si>
-  <si>
-    <t>%ваги</t>
-  </si>
-  <si>
-    <t>%варт</t>
-  </si>
-  <si>
-    <t>%кал</t>
-  </si>
-  <si>
-    <t>рецепт борщ</t>
-  </si>
-  <si>
-    <t>рецепт олів'є</t>
-  </si>
-  <si>
-    <t>ціна1кг</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,28 +58,87 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,129 +404,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="9" width="8" customWidth="1"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>кть людей</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>на всіх людей</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>32500</v>
       </c>
-      <c r="C2">
-        <v>425.24000000000012</v>
-      </c>
-      <c r="D2">
-        <v>58998.749999999993</v>
+      <c r="C2" t="n">
+        <v>425.2400000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58998.74999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>на 1 людину</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>650</v>
       </c>
-      <c r="C3">
-        <v>8.5048000000000012</v>
-      </c>
-      <c r="D3">
-        <v>1179.9749999999999</v>
+      <c r="C3" t="n">
+        <v>8.504800000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1179.975</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
+    <row r="4" customFormat="1" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>меню рецепт</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>порція</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>варт</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>кал</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ціна1кг</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>кал100г</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>%ваги</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>%варт</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>500</v>
       </c>
-      <c r="C5">
-        <v>3.4315000000000002</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>3.4315</v>
+      </c>
+      <c r="D5" t="n">
         <v>780</v>
       </c>
-      <c r="E5">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="F5" t="n">
         <v>156</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>рецепт олів'є</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>150</v>
       </c>
-      <c r="C6">
-        <v>5.0733000000000006</v>
-      </c>
-      <c r="D6">
-        <v>399.97500000000002</v>
-      </c>
-      <c r="E6">
-        <v>33.822000000000003</v>
-      </c>
-      <c r="F6">
-        <v>266.64999999999998</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" t="n">
+        <v>5.073300000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>399.975</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.822</v>
+      </c>
+      <c r="F6" t="n">
+        <v>266.65</v>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="олів'є" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61,7 +63,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -409,20 +412,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.21875" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8" customWidth="1" style="1" min="2" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>кть людей</t>
         </is>
@@ -432,136 +435,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>на всіх людей</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>на 1 людину</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>650</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.504800000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1179.975</v>
+      </c>
+      <c r="E2" t="n">
         <v>32500</v>
       </c>
-      <c r="C2" t="n">
-        <v>425.2400000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58998.74999999999</v>
+      <c r="F2" t="n">
+        <v>425.24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>на 1 людину</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>650</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.504800000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1179.975</v>
+    <row r="3" customFormat="1" s="2">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>меню рецепт</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>порція</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>варт 1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>кал 1</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>заг вага</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>заг варт</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>ціна1кг</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>кал100г</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>%ваги</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>%варт</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>меню рецепт</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>порція</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>варт</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>кал</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ціна1кг</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>кал100г</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>%ваги</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>%варт</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>%кал</t>
-        </is>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>500</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.4315</v>
+      </c>
+      <c r="D4" t="n">
+        <v>780</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>171.575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>156</v>
+      </c>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рецепт борщ</t>
+          <t>рецепт олів'є</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>3.4315</v>
+        <v>5.073300000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>780</v>
+        <v>399.975</v>
       </c>
       <c r="E5" t="n">
-        <v>6.863</v>
+        <v>7500</v>
       </c>
       <c r="F5" t="n">
-        <v>156</v>
-      </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>рецепт олів'є</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>150</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.073300000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>399.975</v>
-      </c>
-      <c r="E6" t="n">
+        <v>253.665</v>
+      </c>
+      <c r="G5" t="n">
         <v>33.822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H5" t="n">
         <v>266.65</v>
       </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -3,12 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="олів'є" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -415,7 +413,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -579,40 +577,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="олів'є" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +40,9 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,11 +66,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +418,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -577,4 +583,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,11 @@
           <t>назва групи</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>борщ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -616,6 +621,96 @@
         <is>
           <t>к-ть</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +738,11 @@
           <t>назва групи</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>олів'є</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -654,6 +754,86 @@
         <is>
           <t>к-ть</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>квашений огірок</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>горошок конс.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>кукурузда конс.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>майонез</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>молочна ковбаса</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,12 +71,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -448,16 +454,16 @@
         <v>650</v>
       </c>
       <c r="C2" t="n">
-        <v>8.504800000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.975</v>
+        <v>1006.9</v>
       </c>
       <c r="E2" t="n">
         <v>32500</v>
       </c>
       <c r="F2" t="n">
-        <v>425.24</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="2">
@@ -527,22 +533,22 @@
         <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4315</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>780</v>
+        <v>708</v>
       </c>
       <c r="E4" t="n">
         <v>25000</v>
       </c>
       <c r="F4" t="n">
-        <v>171.575</v>
+        <v>175</v>
       </c>
       <c r="G4" t="n">
-        <v>6.863</v>
+        <v>6.9</v>
       </c>
       <c r="H4" t="n">
-        <v>156</v>
+        <v>141.6</v>
       </c>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
@@ -558,22 +564,22 @@
         <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>5.073300000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="n">
-        <v>399.975</v>
+        <v>298.9</v>
       </c>
       <c r="E5" t="n">
         <v>7500</v>
       </c>
       <c r="F5" t="n">
-        <v>253.665</v>
+        <v>255</v>
       </c>
       <c r="G5" t="n">
-        <v>33.822</v>
+        <v>33.8</v>
       </c>
       <c r="H5" t="n">
-        <v>266.65</v>
+        <v>199.3</v>
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
@@ -600,7 +606,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>назва групи</t>
         </is>
@@ -612,12 +618,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -733,7 +739,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>назва групи</t>
         </is>
@@ -745,12 +751,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -454,16 +454,16 @@
         <v>650</v>
       </c>
       <c r="C2" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1006.9</v>
+        <v>1006.8</v>
       </c>
       <c r="E2" t="n">
         <v>32500</v>
       </c>
       <c r="F2" t="n">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="2">
@@ -533,7 +533,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="n">
         <v>708</v>
@@ -542,10 +542,10 @@
         <v>25000</v>
       </c>
       <c r="F4" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
         <v>141.6</v>
@@ -567,7 +567,7 @@
         <v>5.1</v>
       </c>
       <c r="D5" t="n">
-        <v>298.9</v>
+        <v>298.8</v>
       </c>
       <c r="E5" t="n">
         <v>7500</v>
@@ -576,10 +576,10 @@
         <v>255</v>
       </c>
       <c r="G5" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="H5" t="n">
-        <v>199.3</v>
+        <v>199.2</v>
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -1,167 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5C224-50B6-4466-B35D-A8A09FC23B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="борщ" sheetId="2" r:id="rId2"/>
-    <sheet name="олів'є" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="олів'є" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
-  <si>
-    <t>кть людей</t>
-  </si>
-  <si>
-    <t>на 1 людину</t>
-  </si>
-  <si>
-    <t>меню рецепт</t>
-  </si>
-  <si>
-    <t>порція</t>
-  </si>
-  <si>
-    <t>варт 1</t>
-  </si>
-  <si>
-    <t>кал 1</t>
-  </si>
-  <si>
-    <t>заг вага</t>
-  </si>
-  <si>
-    <t>заг варт</t>
-  </si>
-  <si>
-    <t>ціна1кг</t>
-  </si>
-  <si>
-    <t>кал100г</t>
-  </si>
-  <si>
-    <t>%ваги</t>
-  </si>
-  <si>
-    <t>%варт</t>
-  </si>
-  <si>
-    <t>%кал</t>
-  </si>
-  <si>
-    <t>рецепт борщ</t>
-  </si>
-  <si>
-    <t>рецепт олів'є</t>
-  </si>
-  <si>
-    <t>назва групи</t>
-  </si>
-  <si>
-    <t>борщ</t>
-  </si>
-  <si>
-    <t>продукт</t>
-  </si>
-  <si>
-    <t>к-ть</t>
-  </si>
-  <si>
-    <t>картопля</t>
-  </si>
-  <si>
-    <t>капуста</t>
-  </si>
-  <si>
-    <t>морква</t>
-  </si>
-  <si>
-    <t>цибуля</t>
-  </si>
-  <si>
-    <t>фасоля</t>
-  </si>
-  <si>
-    <t>буряк</t>
-  </si>
-  <si>
-    <t>олія</t>
-  </si>
-  <si>
-    <t>сіль</t>
-  </si>
-  <si>
-    <t>вода</t>
-  </si>
-  <si>
-    <t>олів'є</t>
-  </si>
-  <si>
-    <t>квашений огірок</t>
-  </si>
-  <si>
-    <t>горошок конс.</t>
-  </si>
-  <si>
-    <t>кукурузда конс.</t>
-  </si>
-  <si>
-    <t>майонез</t>
-  </si>
-  <si>
-    <t>молочна ковбаса</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,30 +68,90 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,105 +417,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="9" width="8" style="1" customWidth="1"/>
+    <col width="16.21875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8" customWidth="1" style="1" min="2" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>олів'є</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32500</v>
+      </c>
+      <c r="F2" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="2">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>меню рецепт</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>порція</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>варт 1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>кал 1</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>заг вага</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>заг варт</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>ціна1кг</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>кал100г</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>%ваги</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>%варт</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>500</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>708</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>170</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>рецепт олів'є</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>150</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>255</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,99 +596,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>олів'є</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>875</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>квашений огірок</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>горошок конс.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>кукурузда конс.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>майонез</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>молочна ковбаса</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -674,90 +779,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>олів'є</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>квашений огірок</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>975</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>горошок конс.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>750</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>кукурузда конс.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>майонез</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>молочна ковбаса</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1500</v>
       </c>
     </row>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -71,13 +76,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +431,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -435,27 +441,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>олів'є</t>
-        </is>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>кть гостей</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>продукт</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>к-ть</t>
-        </is>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>загалом</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>650</v>
       </c>
       <c r="C2" t="n">
         <v>8.5</v>
@@ -464,10 +466,10 @@
         <v>1006.8</v>
       </c>
       <c r="E2" t="n">
-        <v>32500</v>
+        <v>227500</v>
       </c>
       <c r="F2" t="n">
-        <v>425</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="2">
@@ -543,10 +545,10 @@
         <v>708</v>
       </c>
       <c r="E4" t="n">
-        <v>25000</v>
+        <v>175000</v>
       </c>
       <c r="F4" t="n">
-        <v>170</v>
+        <v>1190</v>
       </c>
       <c r="G4" t="n">
         <v>6.8</v>
@@ -574,10 +576,10 @@
         <v>298.8</v>
       </c>
       <c r="E5" t="n">
-        <v>7500</v>
+        <v>52500</v>
       </c>
       <c r="F5" t="n">
-        <v>255</v>
+        <v>1785</v>
       </c>
       <c r="G5" t="n">
         <v>33.7</v>
@@ -610,24 +612,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>олів'є</t>
+          <t>борщ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -640,7 +642,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4">
@@ -650,7 +652,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="5">
@@ -660,7 +662,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="6">
@@ -670,7 +672,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1875</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="7">
@@ -680,7 +682,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1875</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="8">
@@ -690,7 +692,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>875</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +702,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +712,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11">
@@ -720,7 +722,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +732,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>975</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +742,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>750</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="14">
@@ -750,7 +752,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>375</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +762,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>375</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="16">
@@ -770,7 +772,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1500</v>
+        <v>10500</v>
       </c>
     </row>
   </sheetData>
@@ -793,9 +795,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -805,12 +807,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -823,7 +825,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="4">
@@ -833,7 +835,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +845,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +855,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>975</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="7">
@@ -863,7 +865,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="8">
@@ -873,7 +875,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="9">
@@ -883,7 +885,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>375</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="10">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1500</v>
+        <v>10500</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/меню 1.xlsx
+++ b/mvp/меню 1.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -603,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,56 +723,6 @@
       </c>
       <c r="B11" t="n">
         <v>70000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>квашений огірок</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6825</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>горошок конс.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>кукурузда конс.</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>майонез</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>молочна ковбаса</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10500</v>
       </c>
     </row>
   </sheetData>
